--- a/JT_NEW_JOB.xlsx
+++ b/JT_NEW_JOB.xlsx
@@ -50,46 +50,46 @@
     <t>1</t>
   </si>
   <si>
+    <t>SQL</t>
+  </si>
+  <si>
+    <t>use demo_db;</t>
+  </si>
+  <si>
+    <t>YES</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>create table temp(id int, Name varchar(30));</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>insert into temp values(10,Ram);</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>//table created.</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>insert into temp values(12,herry);</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
     <t>sql</t>
   </si>
   <si>
-    <t>use demo_db</t>
-  </si>
-  <si>
-    <t>yes</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>create table temp(id int, Name varchar(30))</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>insert into temp(10,Ram)</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>//table created</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>insert into temp values(12,herry)</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>insert into temp values(11,tom)</t>
-  </si>
-  <si>
-    <t>No</t>
+    <t>insert into temp values(11,tom);</t>
   </si>
   <si>
     <t>7</t>
@@ -101,13 +101,13 @@
     <t>9</t>
   </si>
   <si>
-    <t>select * into temp1 from temp</t>
+    <t>create table temp1(id int, Name varchar(30));</t>
   </si>
   <si>
     <t>10</t>
   </si>
   <si>
-    <t>create table temp1(id int,Name varchar(30))</t>
+    <t>select * into temp1 from temp;</t>
   </si>
 </sst>
 </file>
@@ -323,7 +323,7 @@
         <v>10</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C3" t="s" s="2">
         <v>15</v>
@@ -347,7 +347,7 @@
         <v>10</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="C4" t="s" s="2">
         <v>17</v>
@@ -371,7 +371,7 @@
         <v>10</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="C5" t="s" s="2">
         <v>19</v>
@@ -395,7 +395,7 @@
         <v>10</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="C6" t="s" s="2">
         <v>21</v>
@@ -419,19 +419,19 @@
         <v>10</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="C7" t="s" s="2">
         <v>23</v>
       </c>
       <c r="D7" t="s" s="2">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="E7" t="s" s="2">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F7" t="s" s="2">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
@@ -443,7 +443,7 @@
         <v>10</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="C8" t="s" s="2">
         <v>26</v>
@@ -467,7 +467,7 @@
         <v>10</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="C9" t="s" s="2">
         <v>27</v>
@@ -476,10 +476,10 @@
         <v>12</v>
       </c>
       <c r="E9" t="s" s="2">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F9" t="s" s="2">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
@@ -491,7 +491,7 @@
         <v>10</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="C10" t="s" s="2">
         <v>28</v>
@@ -515,7 +515,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="C11" t="s" s="2">
         <v>30</v>

--- a/JT_NEW_JOB.xlsx
+++ b/JT_NEW_JOB.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="50">
   <si>
     <t>JOB_GROUP</t>
   </si>
@@ -59,16 +59,38 @@
     <t>YES</t>
   </si>
   <si>
+    <t>2021-06-10 10:46:15.721</t>
+  </si>
+  <si>
+    <t>2021-06-10 10:46:18.409</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
     <t>2</t>
   </si>
   <si>
-    <t>create table temp(id int, Name varchar(30));</t>
+    <t>create or replace table temp(id int, Name varchar(30));</t>
+  </si>
+  <si>
+    <t>2021-06-10 10:46:19.142</t>
+  </si>
+  <si>
+    <t>2021-06-10 10:46:21.991</t>
   </si>
   <si>
     <t>3</t>
   </si>
   <si>
-    <t>insert into temp values(10,Ram);</t>
+    <t>insert into temp(id,Name) values(10,Ram);</t>
+  </si>
+  <si>
+    <t>2021-06-10 10:46:22.497</t>
+  </si>
+  <si>
+    <t>SQL compilation error: error line 1 at position 27
+invalid identifier 'RAM'</t>
   </si>
   <si>
     <t>4</t>
@@ -80,7 +102,14 @@
     <t>5</t>
   </si>
   <si>
-    <t>insert into temp values(12,herry);</t>
+    <t>insert into temp(id,Name) values(12,herry);</t>
+  </si>
+  <si>
+    <t>2021-06-10 10:46:24.668</t>
+  </si>
+  <si>
+    <t>SQL compilation error: error line 1 at position 27
+invalid identifier 'HERRY'</t>
   </si>
   <si>
     <t>6</t>
@@ -89,25 +118,53 @@
     <t>sql</t>
   </si>
   <si>
-    <t>insert into temp values(11,tom);</t>
+    <t>insert into temp(id,Name) values(11,tom);</t>
+  </si>
+  <si>
+    <t>2021-06-10 10:46:27.195</t>
+  </si>
+  <si>
+    <t>SQL compilation error: error line 1 at position 27
+invalid identifier 'TOM'</t>
   </si>
   <si>
     <t>7</t>
   </si>
   <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>2021-06-10 10:46:29.116</t>
+  </si>
+  <si>
     <t>8</t>
   </si>
   <si>
+    <t>2021-06-10 10:46:31.062</t>
+  </si>
+  <si>
     <t>9</t>
   </si>
   <si>
-    <t>create table temp1(id int, Name varchar(30));</t>
+    <t>create or replace table temp1(id int, Name varchar(30));</t>
+  </si>
+  <si>
+    <t>2021-06-10 10:46:33.044</t>
+  </si>
+  <si>
+    <t>2021-06-10 10:46:36.041</t>
   </si>
   <si>
     <t>10</t>
   </si>
   <si>
     <t>select * into temp1 from temp;</t>
+  </si>
+  <si>
+    <t>2021-06-10 10:46:36.589</t>
+  </si>
+  <si>
+    <t>SQL compilation error: error line 1 at position 0 INTO clause is not allowed in this context</t>
   </si>
 </sst>
 </file>
@@ -314,32 +371,42 @@
         <v>14</v>
       </c>
       <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
+      <c r="H2" t="s" s="2">
+        <v>15</v>
+      </c>
+      <c r="I2" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="J2" t="s" s="2">
+        <v>17</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
         <v>10</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C3" t="s" s="2">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D3" t="s" s="2">
         <v>12</v>
       </c>
       <c r="E3" t="s" s="2">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="F3" t="s" s="2">
         <v>14</v>
       </c>
       <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
+      <c r="H3" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="I3" t="s" s="2">
+        <v>21</v>
+      </c>
       <c r="J3" s="2"/>
     </row>
     <row r="4">
@@ -347,40 +414,44 @@
         <v>10</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="C4" t="s" s="2">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="D4" t="s" s="2">
         <v>12</v>
       </c>
       <c r="E4" t="s" s="2">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="F4" t="s" s="2">
         <v>14</v>
       </c>
       <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
+      <c r="H4" t="s" s="2">
+        <v>24</v>
+      </c>
       <c r="I4" s="2"/>
-      <c r="J4" s="2"/>
+      <c r="J4" t="s" s="2">
+        <v>25</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
         <v>10</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="C5" t="s" s="2">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="D5" t="s" s="2">
         <v>12</v>
       </c>
       <c r="E5" t="s" s="2">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="F5" t="s" s="2">
         <v>14</v>
@@ -395,119 +466,139 @@
         <v>10</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="C6" t="s" s="2">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="D6" t="s" s="2">
         <v>12</v>
       </c>
       <c r="E6" t="s" s="2">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="F6" t="s" s="2">
         <v>14</v>
       </c>
       <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
+      <c r="H6" t="s" s="2">
+        <v>30</v>
+      </c>
       <c r="I6" s="2"/>
-      <c r="J6" s="2"/>
+      <c r="J6" t="s" s="2">
+        <v>31</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
         <v>10</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="C7" t="s" s="2">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="D7" t="s" s="2">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="E7" t="s" s="2">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="F7" t="s" s="2">
         <v>14</v>
       </c>
       <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
+      <c r="H7" t="s" s="2">
+        <v>35</v>
+      </c>
       <c r="I7" s="2"/>
-      <c r="J7" s="2"/>
+      <c r="J7" t="s" s="2">
+        <v>36</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
         <v>10</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="C8" t="s" s="2">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="D8" t="s" s="2">
         <v>12</v>
       </c>
       <c r="E8" t="s" s="2">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="F8" t="s" s="2">
-        <v>14</v>
+        <v>38</v>
       </c>
       <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
+      <c r="H8" t="s" s="2">
+        <v>39</v>
+      </c>
       <c r="I8" s="2"/>
-      <c r="J8" s="2"/>
+      <c r="J8" t="s" s="2">
+        <v>31</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
         <v>10</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="C9" t="s" s="2">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="D9" t="s" s="2">
         <v>12</v>
       </c>
       <c r="E9" t="s" s="2">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="F9" t="s" s="2">
         <v>14</v>
       </c>
       <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
+      <c r="H9" t="s" s="2">
+        <v>41</v>
+      </c>
       <c r="I9" s="2"/>
-      <c r="J9" s="2"/>
+      <c r="J9" t="s" s="2">
+        <v>36</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
         <v>10</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="C10" t="s" s="2">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="D10" t="s" s="2">
         <v>12</v>
       </c>
       <c r="E10" t="s" s="2">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="F10" t="s" s="2">
         <v>14</v>
       </c>
       <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
-      <c r="I10" s="2"/>
+      <c r="H10" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="I10" t="s" s="2">
+        <v>45</v>
+      </c>
       <c r="J10" s="2"/>
     </row>
     <row r="11">
@@ -515,24 +606,30 @@
         <v>10</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="C11" t="s" s="2">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="D11" t="s" s="2">
         <v>12</v>
       </c>
       <c r="E11" t="s" s="2">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="F11" t="s" s="2">
         <v>14</v>
       </c>
       <c r="G11" s="2"/>
-      <c r="H11" s="2"/>
-      <c r="I11" s="2"/>
-      <c r="J11" s="2"/>
+      <c r="H11" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="I11" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="J11" t="s" s="2">
+        <v>49</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>

--- a/JT_NEW_JOB.xlsx
+++ b/JT_NEW_JOB.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="51">
   <si>
     <t>JOB_GROUP</t>
   </si>
@@ -83,7 +83,7 @@
     <t>3</t>
   </si>
   <si>
-    <t>insert into temp(id,Name) values(10,Ram);</t>
+    <t>insert into temp(id,Name) Values (10,'Ram');</t>
   </si>
   <si>
     <t>2021-06-10 10:46:22.497</t>
@@ -102,7 +102,7 @@
     <t>5</t>
   </si>
   <si>
-    <t>insert into temp(id,Name) values(12,herry);</t>
+    <t>insert into temp(id,Name) Values (12,'herry');</t>
   </si>
   <si>
     <t>2021-06-10 10:46:24.668</t>
@@ -118,7 +118,7 @@
     <t>sql</t>
   </si>
   <si>
-    <t>insert into temp(id,Name) values(11,tom);</t>
+    <t>insert into temp(id,Name) values(11,'tom');</t>
   </si>
   <si>
     <t>2021-06-10 10:46:27.195</t>
@@ -129,6 +129,9 @@
   </si>
   <si>
     <t>7</t>
+  </si>
+  <si>
+    <t>insert into temp(id,Name) values(12,'herry');</t>
   </si>
   <si>
     <t>No</t>
@@ -531,14 +534,14 @@
         <v>12</v>
       </c>
       <c r="E8" t="s" s="2">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="F8" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G8" s="2"/>
       <c r="H8" t="s" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="I8" s="2"/>
       <c r="J8" t="s" s="2">
@@ -550,10 +553,10 @@
         <v>10</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C9" t="s" s="2">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D9" t="s" s="2">
         <v>12</v>
@@ -566,7 +569,7 @@
       </c>
       <c r="G9" s="2"/>
       <c r="H9" t="s" s="2">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="I9" s="2"/>
       <c r="J9" t="s" s="2">
@@ -578,26 +581,26 @@
         <v>10</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C10" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D10" t="s" s="2">
         <v>12</v>
       </c>
       <c r="E10" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F10" t="s" s="2">
         <v>14</v>
       </c>
       <c r="G10" s="2"/>
       <c r="H10" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="I10" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J10" s="2"/>
     </row>
@@ -606,29 +609,29 @@
         <v>10</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C11" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D11" t="s" s="2">
         <v>12</v>
       </c>
       <c r="E11" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F11" t="s" s="2">
         <v>14</v>
       </c>
       <c r="G11" s="2"/>
       <c r="H11" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I11" t="s" s="2">
         <v>17</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>
